--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1842852.725230434</v>
+        <v>-1845572.126374681</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>53.9673663288094</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>169.8512513837142</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>66.19012763330603</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09482355218492</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>16.50145097900668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>297.1787180929311</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>5.962614214307398</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1102,22 +1102,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>81.09061999117898</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>219.1723583587648</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11.99051001629977</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>170.9227181225545</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>184.4059599731357</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805175974</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784679</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.2740711281114</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>27.77749086859478</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>65.56423921895201</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.43007309478924</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>245.879692121443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>112.1382188876854</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652685</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600556</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496364</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="C2" t="n">
-        <v>105.7592778092247</v>
+        <v>1859.931962592038</v>
       </c>
       <c r="D2" t="n">
-        <v>51.2467865680031</v>
+        <v>1501.666263985288</v>
       </c>
       <c r="E2" t="n">
-        <v>51.2467865680031</v>
+        <v>1115.878011387044</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>704.8921065974362</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>289.187356321725</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137582</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297104</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1420.589954256325</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1807.87508285327</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.945518029432</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2387.128251861729</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1549.961057486903</v>
+        <v>1615.796626183538</v>
       </c>
       <c r="C4" t="n">
-        <v>1381.024874558997</v>
+        <v>1446.860443255631</v>
       </c>
       <c r="D4" t="n">
-        <v>1230.908235146661</v>
+        <v>1296.743803843296</v>
       </c>
       <c r="E4" t="n">
-        <v>1082.995141564268</v>
+        <v>1229.885089062179</v>
       </c>
       <c r="F4" t="n">
         <v>1082.995141564268</v>
@@ -4483,16 +4483,16 @@
         <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
         <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
         <v>1750.112669035317</v>
@@ -4504,34 +4504,34 @@
         <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>2263.127174075598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>2263.127174075598</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>1973.710004038638</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>1952.402101460673</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="Y4" t="n">
-        <v>1731.609522317143</v>
+        <v>1797.445091013778</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1211.708328559738</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C5" t="n">
-        <v>842.7458116193261</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="D5" t="n">
-        <v>826.0776793172992</v>
+        <v>370.0371568787068</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796629</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.847660535549</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.708328559738</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.8936537153462</v>
+        <v>479.8501387075395</v>
       </c>
       <c r="C7" t="n">
-        <v>455.9574707874393</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4720,10 +4720,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.324248587133</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1255.324248587133</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1255.324248587133</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X7" t="n">
-        <v>1027.334697689116</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.5421185455859</v>
+        <v>479.8501387075395</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.071510755571</v>
+        <v>1240.759433410664</v>
       </c>
       <c r="C8" t="n">
-        <v>1081.071510755571</v>
+        <v>871.7969164702527</v>
       </c>
       <c r="D8" t="n">
-        <v>1081.071510755571</v>
+        <v>871.7969164702527</v>
       </c>
       <c r="E8" t="n">
-        <v>695.2832581573266</v>
+        <v>486.0086638720084</v>
       </c>
       <c r="F8" t="n">
-        <v>284.297353367719</v>
+        <v>75.02275908240085</v>
       </c>
       <c r="G8" t="n">
-        <v>272.633007132412</v>
+        <v>63.35841284709379</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>63.35841284709379</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1627.359273474786</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.0150268210028</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="C10" t="n">
-        <v>305.0150268210028</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210028</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386097</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1361.213503365277</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1138.235022560013</v>
+        <v>1253.548725796847</v>
       </c>
       <c r="U10" t="n">
-        <v>849.1166850638502</v>
+        <v>1253.548725796847</v>
       </c>
       <c r="V10" t="n">
-        <v>594.4321968579634</v>
+        <v>1253.548725796847</v>
       </c>
       <c r="W10" t="n">
-        <v>305.0150268210028</v>
+        <v>1253.548725796847</v>
       </c>
       <c r="X10" t="n">
-        <v>305.0150268210028</v>
+        <v>1025.55917489883</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.0150268210028</v>
+        <v>804.7665957552998</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400699</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812163</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>344.917417812163</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>344.917417812163</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>344.917417812163</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5294,28 +5294,28 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,7 +5364,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>1859.536823237711</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.581113480496</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>615.6449305525891</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402534</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578603</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5479,7 +5479,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107357</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2380.736579318693</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>879.176099401437</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>335.9629114732377</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2083.791617318188</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,22 +6403,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438403</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150021</v>
@@ -6844,10 +6844,10 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6868,7 +6868,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,7 +6895,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,13 +7114,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>255.5240487471577</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.50016306149536</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>114.3555089013353</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>73.6605958099978</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>300.7156752918735</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>310.5333984494251</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>131.1673011786912</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>211.7238599265976</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>204.6148318368522</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405091</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.31058222398335</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.4693302300331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.4620467826926</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>40.3047822678011</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.2672314396029</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359159</v>
+        <v>81152.27790359157</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26332,10 +26332,10 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26347,13 +26347,13 @@
         <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35042.64031981787</v>
+        <v>35042.64031981786</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719658</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171971</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719687</v>
+        <v>7507.368461719731</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.36846171972</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="L4" t="n">
         <v>15498.22772481314</v>
       </c>
       <c r="M4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="O4" t="n">
         <v>15498.22772481314</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481314</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481315</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481314</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1161579.91843199</v>
+        <v>-1162009.477298579</v>
       </c>
       <c r="C6" t="n">
-        <v>-123421.4147535537</v>
+        <v>-123421.4147535536</v>
       </c>
       <c r="D6" t="n">
         <v>-123421.4147535536</v>
       </c>
       <c r="E6" t="n">
-        <v>-515222.0149489217</v>
+        <v>-515256.7528743575</v>
       </c>
       <c r="F6" t="n">
-        <v>-7736.57332437599</v>
+        <v>-7771.311249811683</v>
       </c>
       <c r="G6" t="n">
-        <v>-7736.573324376033</v>
+        <v>-7771.311249811697</v>
       </c>
       <c r="H6" t="n">
-        <v>-7736.573324376019</v>
+        <v>-7771.311249811726</v>
       </c>
       <c r="I6" t="n">
-        <v>-7736.573324376033</v>
+        <v>-7771.311249811697</v>
       </c>
       <c r="J6" t="n">
-        <v>-203065.0181493072</v>
+        <v>-203065.0181493074</v>
       </c>
       <c r="K6" t="n">
-        <v>-16032.12234569296</v>
+        <v>-16032.12234569297</v>
       </c>
       <c r="L6" t="n">
-        <v>-16032.12234569309</v>
+        <v>-16032.12234569307</v>
       </c>
       <c r="M6" t="n">
-        <v>-148639.4160746198</v>
+        <v>-148639.4160746197</v>
       </c>
       <c r="N6" t="n">
         <v>-16032.12234569309</v>
       </c>
       <c r="O6" t="n">
-        <v>-35459.84033932484</v>
+        <v>-35459.84033932487</v>
       </c>
       <c r="P6" t="n">
-        <v>-16032.1223456931</v>
+        <v>-16032.12234569309</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.0143043235289</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.3213902018644</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>80.24383501326314</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,13 +27594,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>338.1815906416763</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>84.75165197933063</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>161.2842068843204</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>205.1365341300216</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>81.84619420364058</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>53.71940265617072</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>23.73974223918293</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>36.34273602407623</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>302.9675447508054</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
-        <v>744.7005224868051</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,10 +32561,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>277.2922978908106</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>536.3866168795495</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>622.4553810291982</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.9808853923499</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>364.0350380248676</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>440.5919280920382</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>160.8335108287871</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
-        <v>613.3588104034718</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,10 +36209,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>134.6960534463662</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>405.0449047962162</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
